--- a/区统考期中考试/2019-2020第一学期/成绩/2019-2020第一学期 G7/历史-单科报表.(2).xlsx
+++ b/区统考期中考试/2019-2020第一学期/成绩/2019-2020第一学期 G7/历史-单科报表.(2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Teaching\日常\期中考试成绩\2019-2020第一学期 G7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Teaching\区统考期中考试\2019-2020第一学期\成绩\2019-2020第一学期 G7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EAAD80-98D4-4836-A4C3-FC238C7F5372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A182014C-5A35-4A1A-803D-D9A343561362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1737,17 +1737,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2061,19 +2061,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2110,19 +2110,19 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2162,27 +2162,27 @@
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2380,19 +2380,19 @@
       </c>
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2540,27 +2540,27 @@
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3378,27 +3378,27 @@
       <c r="A29" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -3500,43 +3500,43 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3" t="s">
+      <c r="E45" s="3"/>
+      <c r="F45" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="3" t="s">
+      <c r="G45" s="3"/>
+      <c r="H45" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="I45" s="1"/>
+      <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="3"/>
       <c r="B46" t="s">
         <v>210</v>
       </c>
@@ -3624,32 +3624,32 @@
       <c r="A49" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="16">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A44:K44"/>
     <mergeCell ref="A49:G49"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3667,10 +3667,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4151,7 +4151,8 @@
   <dimension ref="A1:BP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BP30" sqref="BP30"/>
+      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU34" sqref="AU34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4160,19 +4161,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4334,49 +4335,49 @@
       <c r="BA2" t="s">
         <v>274</v>
       </c>
-      <c r="BB2" s="5" t="s">
+      <c r="BB2" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="BC2" s="5" t="s">
+      <c r="BC2" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="BD2" s="5" t="s">
+      <c r="BD2" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="BE2" s="5" t="s">
+      <c r="BE2" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="BF2" s="5" t="s">
+      <c r="BF2" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="BG2" s="5" t="s">
+      <c r="BG2" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="BH2" s="5" t="s">
+      <c r="BH2" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="BI2" s="5" t="s">
+      <c r="BI2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="BJ2" s="5" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="BK2" s="5" t="s">
+      <c r="BK2" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="BL2" s="5" t="s">
+      <c r="BL2" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="BM2" s="5" t="s">
+      <c r="BM2" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="BN2" s="5" t="s">
+      <c r="BN2" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="BO2" s="5" t="s">
+      <c r="BO2" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="BP2" s="5" t="s">
+      <c r="BP2" s="1" t="s">
         <v>350</v>
       </c>
     </row>
@@ -8541,7 +8542,7 @@
         <f>AE23/40</f>
         <v>0.9</v>
       </c>
-      <c r="AG24" s="5">
+      <c r="AG24" s="1">
         <f>AG23/40</f>
         <v>0.6</v>
       </c>
